--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T08:10:47+00:00</t>
+    <t>2025-12-04T16:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T16:15:01+00:00</t>
+    <t>2025-12-05T08:40:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:40:02+00:00</t>
+    <t>2025-12-11T09:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:28:46+00:00</t>
+    <t>2025-12-11T09:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:35:14+00:00</t>
+    <t>2025-12-11T10:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/344-spécifications-techniques---séparation-des-modèles-sdo-et-esms/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T10:52:32+00:00</t>
+    <t>2025-12-11T11:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
